--- a/outputs-HGR-r202/f__CAG-274.xlsx
+++ b/outputs-HGR-r202/f__CAG-274.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>g__CAG-274</t>
+          <t>g__CAG-274(reject)</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>g__UMGS1441</t>
+          <t>g__UMGS1441(reject)</t>
         </is>
       </c>
     </row>
